--- a/11-CollaborationList/InstituteCancerResearch.xlsx
+++ b/11-CollaborationList/InstituteCancerResearch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2024-10-Refresh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F015AF-63BD-A64F-99CE-F33B08541FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D8956A-62A0-F044-B12D-5F1B0DCB6C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="3140" windowWidth="27640" windowHeight="16940" xr2:uid="{CC4E119D-9618-D84F-B362-22684ABE43A6}"/>
+    <workbookView xWindow="10760" yWindow="3140" windowWidth="27640" windowHeight="16940" xr2:uid="{CC4E119D-9618-D84F-B362-22684ABE43A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>Emma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harris </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.J. </t>
   </si>
   <si>
     <t>Emma.Harris@icr.ac.uk</t>
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t>U. Oelfke</t>
+  </si>
+  <si>
+    <t>E.J.</t>
+  </si>
+  <si>
+    <t>Harris</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,22 +791,22 @@
         <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -816,7 +816,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>24</v>
@@ -827,19 +827,19 @@
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>21</v>
